--- a/0 Model Price Targets 0.xlsx
+++ b/0 Model Price Targets 0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Equity Research\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63037905-3CB4-419A-8301-2FDC27B1EBC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704B49D7-F675-490C-8921-8F76AF2F3B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28695" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -335,6 +335,33 @@
   </si>
   <si>
     <t>What a dog of a company … should stay short but it's still a crazy AI stock operated by shady managers</t>
+  </si>
+  <si>
+    <t>Market Preform</t>
+  </si>
+  <si>
+    <t>Took Profits, eToro IPO on Wednesday … I want to see how the cards fall before taking on a new position</t>
+  </si>
+  <si>
+    <t>SYK</t>
+  </si>
+  <si>
+    <t>SRPT</t>
+  </si>
+  <si>
+    <t>Market Outpreform</t>
+  </si>
+  <si>
+    <t>Closed 5/12/2025 … Keep an eye on the company but I made a mistake taking a position at ~$105</t>
+  </si>
+  <si>
+    <t>TLN</t>
+  </si>
+  <si>
+    <t>TLT</t>
+  </si>
+  <si>
+    <t>Country Default Spreads and Risk Premiums (Jan. '25)</t>
   </si>
 </sst>
 </file>
@@ -700,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5BDB6D1-5B4A-4E92-9D12-B635DE010EAD}">
   <dimension ref="B2:U35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -785,6 +812,9 @@
       <c r="C9" t="s">
         <v>41</v>
       </c>
+      <c r="G9" s="8" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
@@ -923,6 +953,7 @@
     <hyperlink ref="C23" r:id="rId3" display="Med Devices" xr:uid="{52D8FC5C-A500-46E9-BA41-680E2C121724}"/>
     <hyperlink ref="G8" r:id="rId4" xr:uid="{BFB8FC58-832A-48DD-A4D0-95585AE8E79A}"/>
     <hyperlink ref="G4" r:id="rId5" xr:uid="{00D10E4B-6F23-4B1C-8051-B68DA25ACD5A}"/>
+    <hyperlink ref="G9" r:id="rId6" xr:uid="{BA174AC1-5E13-4855-9C45-8605F0CAF86F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -930,10 +961,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:J39"/>
+  <dimension ref="B2:J40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1201,100 +1232,109 @@
       <c r="F10" s="1">
         <v>5</v>
       </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="1"/>
+      <c r="G10">
+        <v>93.8</v>
+      </c>
+      <c r="H10" s="3">
+        <f>G10/E10-1</f>
+        <v>-0.10290742157612853</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="11" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="C11" s="2">
-        <v>45700</v>
+        <v>45684</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E11">
-        <v>53.5</v>
+        <v>191.5</v>
       </c>
       <c r="F11" s="1">
-        <v>4</v>
-      </c>
-      <c r="G11">
-        <v>46.28</v>
-      </c>
-      <c r="H11" s="3">
-        <f>G11/E11-1</f>
-        <v>-0.13495327102803734</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C12" s="2">
-        <v>45707</v>
+        <v>45700</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E12">
-        <v>59.13</v>
+        <v>53.5</v>
       </c>
       <c r="F12" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G12">
-        <v>47.62</v>
+        <v>46.28</v>
       </c>
       <c r="H12" s="3">
         <f>G12/E12-1</f>
-        <v>-0.19465584305766959</v>
+        <v>-0.13495327102803734</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="C13" s="2">
-        <v>45709</v>
+        <v>45707</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E13">
-        <v>28.6</v>
+        <v>59.13</v>
       </c>
       <c r="F13" s="1">
-        <v>6</v>
-      </c>
-      <c r="H13" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>47.62</v>
+      </c>
+      <c r="H13" s="3">
+        <f>G13/E13-1</f>
+        <v>-0.19465584305766959</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="C14" s="2">
-        <v>45712</v>
+        <v>45709</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E14">
-        <v>217.5</v>
+        <v>28.6</v>
       </c>
       <c r="F14" s="1">
         <v>6</v>
@@ -1303,19 +1343,19 @@
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="C15" s="2">
-        <v>45770</v>
+        <v>45712</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="E15">
-        <v>217.19</v>
+        <v>217.5</v>
       </c>
       <c r="F15" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H15" s="3"/>
     </row>
@@ -1381,7 +1421,7 @@
         <v>15.74</v>
       </c>
       <c r="F18" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H18" s="3"/>
       <c r="J18" s="1"/>
@@ -1426,26 +1466,26 @@
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="C21" s="2">
-        <v>45754</v>
+        <v>45737</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E21">
-        <v>264.44</v>
+        <v>89.96</v>
       </c>
       <c r="F21" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H21" s="3"/>
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C22" s="2">
         <v>45754</v>
@@ -1454,227 +1494,320 @@
         <v>9</v>
       </c>
       <c r="E22">
-        <v>63.89</v>
+        <v>264.44</v>
       </c>
       <c r="F22" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H22" s="3"/>
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C23" s="2">
-        <v>45755</v>
+        <v>45754</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E23">
-        <v>35.5</v>
+        <v>63.89</v>
       </c>
       <c r="F23" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H23" s="3"/>
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C24" s="2">
-        <v>45761</v>
+        <v>45755</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E24">
-        <v>44.11</v>
+        <v>35.5</v>
       </c>
       <c r="F24" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H24" s="3"/>
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C25" s="2">
-        <v>45768</v>
+        <v>45761</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E25">
-        <v>148.93</v>
+        <v>44.11</v>
       </c>
       <c r="F25" s="1">
-        <v>7</v>
-      </c>
-      <c r="H25" s="3"/>
-      <c r="J25" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="G25">
+        <v>57.5</v>
+      </c>
+      <c r="H25" s="3">
+        <f>G25/E25-1</f>
+        <v>0.30355928360915896</v>
+      </c>
+      <c r="I25" t="s">
+        <v>100</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C26" s="2">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E26">
-        <v>26</v>
+        <v>148.93</v>
       </c>
       <c r="F26" s="1">
-        <v>5</v>
-      </c>
-      <c r="G26">
-        <v>49.54</v>
-      </c>
-      <c r="H26" s="3">
-        <f>G26/E26-1</f>
-        <v>0.90538461538461545</v>
-      </c>
-      <c r="I26" t="s">
-        <v>89</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>22</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="H26" s="3"/>
+      <c r="J26" s="1"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C27" s="2">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E27">
-        <v>250</v>
+        <v>26</v>
       </c>
       <c r="F27" s="1">
-        <v>6</v>
-      </c>
-      <c r="H27" s="3"/>
-      <c r="J27" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="G27">
+        <v>49.54</v>
+      </c>
+      <c r="H27" s="3">
+        <f>G27/E27-1</f>
+        <v>0.90538461538461545</v>
+      </c>
+      <c r="I27" t="s">
+        <v>89</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="C28" s="2">
-        <v>45775</v>
+        <v>45770</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E28">
-        <v>306.72000000000003</v>
+        <v>217.19</v>
       </c>
       <c r="F28" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H28" s="3"/>
-      <c r="J28" s="1"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C29" s="2">
-        <v>45777</v>
+        <v>45770</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E29">
-        <v>102.97</v>
+        <v>250</v>
       </c>
       <c r="F29" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H29" s="3"/>
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>83</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
+      </c>
+      <c r="C30" s="2">
+        <v>45775</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="E30">
+        <v>306.72000000000003</v>
+      </c>
       <c r="F30" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H30" s="3"/>
       <c r="J30" s="1"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C31" s="2">
-        <v>45779</v>
+        <v>45777</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
       <c r="E31">
-        <v>354.25</v>
+        <v>102.97</v>
       </c>
       <c r="F31" s="1">
         <v>4</v>
       </c>
-      <c r="G31">
+      <c r="H31" s="3"/>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32">
+        <v>598.91999999999996</v>
+      </c>
+      <c r="F32" s="1">
+        <v>5</v>
+      </c>
+      <c r="H32" s="3"/>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" s="2">
+        <v>45779</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33">
+        <v>354.25</v>
+      </c>
+      <c r="F33" s="1">
+        <v>3</v>
+      </c>
+      <c r="G33">
         <v>373</v>
       </c>
-      <c r="H31" s="3">
-        <f>G31/E31-1</f>
+      <c r="H33" s="3">
+        <f>G33/E33-1</f>
         <v>5.2928722653493354E-2</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I33" t="s">
         <v>96</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="J33" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H32" s="3"/>
-    </row>
-    <row r="33" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H33" s="3"/>
-    </row>
-    <row r="34" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" s="2">
+        <v>45782</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34">
+        <v>45.51</v>
+      </c>
+      <c r="F34" s="1">
+        <v>5</v>
+      </c>
       <c r="H34" s="3"/>
     </row>
-    <row r="35" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" s="2">
+        <v>45786</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E35">
+        <v>380.92</v>
+      </c>
+      <c r="F35" s="1">
+        <v>6</v>
+      </c>
       <c r="H35" s="3"/>
     </row>
-    <row r="36" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36" s="2">
+        <v>45786</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36">
+        <v>36.75</v>
+      </c>
+      <c r="F36" s="1">
+        <v>4</v>
+      </c>
       <c r="H36" s="3"/>
     </row>
-    <row r="37" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H37" s="3"/>
     </row>
-    <row r="38" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H38" s="3"/>
     </row>
-    <row r="39" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H39" s="3"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H40" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/0 Model Price Targets 0.xlsx
+++ b/0 Model Price Targets 0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Equity Research\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704B49D7-F675-490C-8921-8F76AF2F3B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34FC482-0BE6-48FF-8FC8-76814D80F0C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2235" yWindow="2805" windowWidth="21600" windowHeight="13155" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="2" r:id="rId1"/>
@@ -963,7 +963,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>

--- a/0 Model Price Targets 0.xlsx
+++ b/0 Model Price Targets 0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Equity Research\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34FC482-0BE6-48FF-8FC8-76814D80F0C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E7B83B-F5DF-4DD4-B88A-8A88BECB06FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2235" yWindow="2805" windowWidth="21600" windowHeight="13155" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-240" yWindow="2085" windowWidth="21600" windowHeight="11055" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="112">
   <si>
     <t>Date</t>
   </si>
@@ -362,6 +362,18 @@
   </si>
   <si>
     <t>Country Default Spreads and Risk Premiums (Jan. '25)</t>
+  </si>
+  <si>
+    <t>Quick in and out tactictal trade … need to commit to further research, but I like paypal more from a value perspective</t>
+  </si>
+  <si>
+    <t>AMD</t>
+  </si>
+  <si>
+    <t>EL</t>
+  </si>
+  <si>
+    <t>QBTS</t>
   </si>
 </sst>
 </file>
@@ -961,10 +973,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:J40"/>
+  <dimension ref="B2:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1504,7 +1516,7 @@
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="C23" s="2">
         <v>45754</v>
@@ -1513,133 +1525,134 @@
         <v>9</v>
       </c>
       <c r="E23">
-        <v>63.89</v>
+        <v>96.69</v>
       </c>
       <c r="F23" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H23" s="3"/>
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C24" s="2">
-        <v>45755</v>
+        <v>45754</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E24">
-        <v>35.5</v>
+        <v>63.89</v>
       </c>
       <c r="F24" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H24" s="3"/>
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C25" s="2">
-        <v>45761</v>
+        <v>45755</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E25">
-        <v>44.11</v>
+        <v>35.5</v>
       </c>
       <c r="F25" s="1">
-        <v>5</v>
-      </c>
-      <c r="G25">
-        <v>57.5</v>
-      </c>
-      <c r="H25" s="3">
-        <f>G25/E25-1</f>
-        <v>0.30355928360915896</v>
-      </c>
-      <c r="I25" t="s">
-        <v>100</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>22</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="J25" s="1"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C26" s="2">
-        <v>45768</v>
+        <v>45761</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E26">
-        <v>148.93</v>
+        <v>44.11</v>
       </c>
       <c r="F26" s="1">
-        <v>7</v>
-      </c>
-      <c r="H26" s="3"/>
-      <c r="J26" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="G26">
+        <v>57.5</v>
+      </c>
+      <c r="H26" s="3">
+        <f>G26/E26-1</f>
+        <v>0.30355928360915896</v>
+      </c>
+      <c r="I26" t="s">
+        <v>100</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C27" s="2">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E27">
-        <v>26</v>
+        <v>148.93</v>
       </c>
       <c r="F27" s="1">
-        <v>5</v>
-      </c>
-      <c r="G27">
-        <v>49.54</v>
-      </c>
-      <c r="H27" s="3">
-        <f>G27/E27-1</f>
-        <v>0.90538461538461545</v>
-      </c>
-      <c r="I27" t="s">
-        <v>89</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>22</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="H27" s="3"/>
+      <c r="J27" s="1"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="C28" s="2">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E28">
-        <v>217.19</v>
+        <v>26</v>
       </c>
       <c r="F28" s="1">
-        <v>4</v>
-      </c>
-      <c r="H28" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="G28">
+        <v>49.54</v>
+      </c>
+      <c r="H28" s="3">
+        <f>G28/E28-1</f>
+        <v>0.90538461538461545</v>
+      </c>
+      <c r="I28" t="s">
+        <v>89</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="C29" s="2">
         <v>45770</v>
@@ -1648,26 +1661,25 @@
         <v>9</v>
       </c>
       <c r="E29">
-        <v>250</v>
+        <v>217.19</v>
       </c>
       <c r="F29" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H29" s="3"/>
-      <c r="J29" s="1"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C30" s="2">
-        <v>45775</v>
+        <v>45770</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E30">
-        <v>306.72000000000003</v>
+        <v>250</v>
       </c>
       <c r="F30" s="1">
         <v>6</v>
@@ -1677,137 +1689,228 @@
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C31" s="2">
-        <v>45777</v>
+        <v>45775</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="E31">
-        <v>102.97</v>
+        <v>306.72000000000003</v>
       </c>
       <c r="F31" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H31" s="3"/>
       <c r="J31" s="1"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>83</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
+      </c>
+      <c r="C32" s="2">
+        <v>45777</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
       <c r="E32">
-        <v>598.91999999999996</v>
+        <v>102.97</v>
       </c>
       <c r="F32" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H32" s="3"/>
       <c r="J32" s="1"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>82</v>
-      </c>
-      <c r="C33" s="2">
-        <v>45779</v>
+        <v>83</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E33">
-        <v>354.25</v>
+        <v>598.91999999999996</v>
       </c>
       <c r="F33" s="1">
-        <v>3</v>
-      </c>
-      <c r="G33">
-        <v>373</v>
-      </c>
-      <c r="H33" s="3">
-        <f>G33/E33-1</f>
-        <v>5.2928722653493354E-2</v>
-      </c>
-      <c r="I33" t="s">
-        <v>96</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>22</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="H33" s="3"/>
+      <c r="J33" s="1"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="C34" s="2">
-        <v>45782</v>
+        <v>45779</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
       <c r="E34">
-        <v>45.51</v>
+        <v>354.25</v>
       </c>
       <c r="F34" s="1">
-        <v>5</v>
-      </c>
-      <c r="H34" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="G34">
+        <v>373</v>
+      </c>
+      <c r="H34" s="3">
+        <f>G34/E34-1</f>
+        <v>5.2928722653493354E-2</v>
+      </c>
+      <c r="I34" t="s">
+        <v>96</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="C35" s="2">
-        <v>45786</v>
+        <v>45782</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="E35">
-        <v>380.92</v>
+        <v>45.51</v>
       </c>
       <c r="F35" s="1">
-        <v>6</v>
-      </c>
-      <c r="H35" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="G35">
+        <v>55.21</v>
+      </c>
+      <c r="H35" s="3">
+        <f>G35/E35-1</f>
+        <v>0.2131399692375302</v>
+      </c>
+      <c r="I35" t="s">
+        <v>108</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C36" s="2">
         <v>45786</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="E36">
+        <v>380.92</v>
+      </c>
+      <c r="F36" s="1">
+        <v>6</v>
+      </c>
+      <c r="H36" s="3"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>102</v>
+      </c>
+      <c r="C37" s="2">
+        <v>45786</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37">
         <v>36.75</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F37" s="1">
+        <v>8</v>
+      </c>
+      <c r="H37" s="3"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" s="2">
+        <v>45790</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38">
+        <v>116.27</v>
+      </c>
+      <c r="F38" s="1">
         <v>4</v>
       </c>
-      <c r="H36" s="3"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H37" s="3"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H38" s="3"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>110</v>
+      </c>
+      <c r="C39" s="2">
+        <v>45791</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39">
+        <v>62.11</v>
+      </c>
+      <c r="F39" s="1">
+        <v>4</v>
+      </c>
       <c r="H39" s="3"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="2">
+        <v>45791</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40">
+        <v>313.86</v>
+      </c>
+      <c r="F40" s="1">
+        <v>5</v>
+      </c>
       <c r="H40" s="3"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>111</v>
+      </c>
+      <c r="C41" s="2">
+        <v>45796</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41">
+        <v>13.24</v>
+      </c>
+      <c r="F41" s="1">
+        <v>6</v>
+      </c>
+      <c r="H41" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/0 Model Price Targets 0.xlsx
+++ b/0 Model Price Targets 0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Equity Research\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E7B83B-F5DF-4DD4-B88A-8A88BECB06FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367EACF8-66EC-44BC-86F2-0634B0622DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-240" yWindow="2085" windowWidth="21600" windowHeight="11055" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28575" yWindow="1545" windowWidth="21600" windowHeight="11055" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="2" r:id="rId1"/>
@@ -975,8 +975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/0 Model Price Targets 0.xlsx
+++ b/0 Model Price Targets 0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Equity Research\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367EACF8-66EC-44BC-86F2-0634B0622DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{503331EC-8B9A-4121-A7A1-73C6ECE8692F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28575" yWindow="1545" windowWidth="21600" windowHeight="11055" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34875" yWindow="3885" windowWidth="21600" windowHeight="11055" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="117">
   <si>
     <t>Date</t>
   </si>
@@ -169,9 +169,6 @@
     <t>Chemicals</t>
   </si>
   <si>
-    <t>SAAS</t>
-  </si>
-  <si>
     <t>Nuclear</t>
   </si>
   <si>
@@ -334,9 +331,6 @@
     <t>SMCI</t>
   </si>
   <si>
-    <t>What a dog of a company … should stay short but it's still a crazy AI stock operated by shady managers</t>
-  </si>
-  <si>
     <t>Market Preform</t>
   </si>
   <si>
@@ -374,6 +368,28 @@
   </si>
   <si>
     <t>QBTS</t>
+  </si>
+  <si>
+    <t>MDT</t>
+  </si>
+  <si>
+    <t>Market Underpreform</t>
+  </si>
+  <si>
+    <t>Buy
+[reiterate]</t>
+  </si>
+  <si>
+    <t>UNH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quick in and out tactictal trade … need to commit to further research but the equity has taken a huge beating and their's still much uncertainty around guidance, management and legal action against the company/the potential for trump to uproot managed care in the marketplace... </t>
+  </si>
+  <si>
+    <t>What a dog of a company … should stay short but it's still a crazy AI momentum stock, operated by shady managers</t>
+  </si>
+  <si>
+    <t>Software</t>
   </si>
 </sst>
 </file>
@@ -435,7 +451,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -456,6 +472,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -740,7 +759,7 @@
   <dimension ref="B2:U35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -754,43 +773,43 @@
   <sheetData>
     <row r="2" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F3" t="s">
         <v>35</v>
       </c>
       <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="s">
         <v>58</v>
       </c>
-      <c r="M3" t="s">
-        <v>59</v>
-      </c>
       <c r="U3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G5" t="s">
         <v>36</v>
@@ -798,7 +817,7 @@
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G6" t="s">
         <v>37</v>
@@ -806,10 +825,10 @@
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.25">
@@ -817,7 +836,7 @@
         <v>40</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.25">
@@ -825,22 +844,22 @@
         <v>41</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.25">
@@ -850,12 +869,12 @@
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.25">
@@ -875,17 +894,17 @@
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
@@ -905,7 +924,7 @@
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
@@ -925,12 +944,12 @@
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
@@ -940,12 +959,12 @@
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>43</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
@@ -955,7 +974,7 @@
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -973,10 +992,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:J41"/>
+  <dimension ref="B2:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1140,7 +1159,7 @@
     </row>
     <row r="7" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C7" s="2">
         <v>45629</v>
@@ -1162,7 +1181,7 @@
         <v>-0.34520697167755987</v>
       </c>
       <c r="I7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>22</v>
@@ -1192,7 +1211,7 @@
         <v>0.12112985585934966</v>
       </c>
       <c r="I8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>21</v>
@@ -1230,7 +1249,7 @@
     </row>
     <row r="10" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C10" s="2">
         <v>45678</v>
@@ -1242,7 +1261,7 @@
         <v>104.56</v>
       </c>
       <c r="F10" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G10">
         <v>93.8</v>
@@ -1252,7 +1271,7 @@
         <v>-0.10290742157612853</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>22</v>
@@ -1260,7 +1279,7 @@
     </row>
     <row r="11" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C11" s="2">
         <v>45684</v>
@@ -1277,7 +1296,7 @@
     </row>
     <row r="12" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C12" s="2">
         <v>45700</v>
@@ -1299,7 +1318,7 @@
         <v>-0.13495327102803734</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>22</v>
@@ -1307,7 +1326,7 @@
     </row>
     <row r="13" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C13" s="2">
         <v>45707</v>
@@ -1329,7 +1348,7 @@
         <v>-0.19465584305766959</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>22</v>
@@ -1355,13 +1374,13 @@
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C15" s="2">
         <v>45712</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E15">
         <v>217.5</v>
@@ -1373,7 +1392,7 @@
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C16" s="2">
         <v>45737</v>
@@ -1413,7 +1432,7 @@
         <v>2.9411764705882248E-2</v>
       </c>
       <c r="I17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>22</v>
@@ -1440,7 +1459,7 @@
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C19" s="2">
         <v>45747</v>
@@ -1459,7 +1478,7 @@
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C20" s="2">
         <v>45751</v>
@@ -1478,7 +1497,7 @@
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C21" s="2">
         <v>45737</v>
@@ -1497,7 +1516,7 @@
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C22" s="2">
         <v>45754</v>
@@ -1535,7 +1554,7 @@
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C24" s="2">
         <v>45754</v>
@@ -1554,7 +1573,7 @@
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C25" s="2">
         <v>45755</v>
@@ -1573,7 +1592,7 @@
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C26" s="2">
         <v>45761</v>
@@ -1595,7 +1614,7 @@
         <v>0.30355928360915896</v>
       </c>
       <c r="I26" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>22</v>
@@ -1603,7 +1622,7 @@
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C27" s="2">
         <v>45768</v>
@@ -1622,7 +1641,7 @@
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C28" s="2">
         <v>45769</v>
@@ -1644,7 +1663,7 @@
         <v>0.90538461538461545</v>
       </c>
       <c r="I28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>22</v>
@@ -1652,7 +1671,7 @@
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C29" s="2">
         <v>45770</v>
@@ -1670,7 +1689,7 @@
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C30" s="2">
         <v>45770</v>
@@ -1689,7 +1708,7 @@
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C31" s="2">
         <v>45775</v>
@@ -1708,13 +1727,13 @@
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C32" s="2">
         <v>45777</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E32">
         <v>102.97</v>
@@ -1727,10 +1746,10 @@
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>9</v>
@@ -1746,13 +1765,13 @@
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C34" s="2">
         <v>45779</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E34">
         <v>354.25</v>
@@ -1768,7 +1787,7 @@
         <v>5.2928722653493354E-2</v>
       </c>
       <c r="I34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>22</v>
@@ -1776,7 +1795,7 @@
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C35" s="2">
         <v>45782</v>
@@ -1798,7 +1817,7 @@
         <v>0.2131399692375302</v>
       </c>
       <c r="I35" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>22</v>
@@ -1806,13 +1825,13 @@
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C36" s="2">
         <v>45786</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E36">
         <v>380.92</v>
@@ -1824,7 +1843,7 @@
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C37" s="2">
         <v>45786</v>
@@ -1842,7 +1861,7 @@
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C38" s="2">
         <v>45790</v>
@@ -1860,7 +1879,7 @@
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C39" s="2">
         <v>45791</v>
@@ -1896,21 +1915,85 @@
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
+        <v>113</v>
+      </c>
+      <c r="C41" s="2">
+        <v>45792</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41">
+        <v>271.97000000000003</v>
+      </c>
+      <c r="F41" s="1">
+        <v>3</v>
+      </c>
+      <c r="G41">
+        <v>293.22000000000003</v>
+      </c>
+      <c r="H41" s="3">
+        <f>G41/E41-1</f>
+        <v>7.8133617678420419E-2</v>
+      </c>
+      <c r="I41" t="s">
+        <v>114</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>109</v>
+      </c>
+      <c r="C42" s="2">
+        <v>45796</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42">
+        <v>13.24</v>
+      </c>
+      <c r="F42" s="1">
+        <v>6</v>
+      </c>
+      <c r="H42" s="3"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>110</v>
+      </c>
+      <c r="C43" s="2">
+        <v>45796</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C41" s="2">
-        <v>45796</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E41">
-        <v>13.24</v>
-      </c>
-      <c r="F41" s="1">
+      <c r="E43">
+        <v>86.33</v>
+      </c>
+      <c r="F43" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>76</v>
+      </c>
+      <c r="C44" s="2">
+        <v>45798</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E44">
+        <v>167.99</v>
+      </c>
+      <c r="F44" s="1">
         <v>6</v>
       </c>
-      <c r="H41" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
